--- a/Test/MultiPSO/Explore150Exploit200/ALLCONError_175.xlsx
+++ b/Test/MultiPSO/Explore150Exploit200/ALLCONError_175.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.007432200183537659</v>
+        <v>0.006233198304786105</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0006986886913683274</v>
+        <v>0.001428068283438519</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001241362194535463</v>
+        <v>0.00120267883095449</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001735114415610002</v>
+        <v>0.0007739775093306239</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002416242789278557</v>
+        <v>0.002714104525674034</v>
       </c>
       <c r="F1" t="n">
-        <v>0.00507944775588876</v>
+        <v>0.00209412413135296</v>
       </c>
       <c r="G1" t="n">
-        <v>0.004067870240323645</v>
+        <v>0.001319202014195852</v>
       </c>
       <c r="H1" t="n">
-        <v>0.002899961550862557</v>
+        <v>0.002238834451267442</v>
       </c>
       <c r="I1" t="n">
-        <v>0.004358911450354243</v>
+        <v>0.003317797792902726</v>
       </c>
       <c r="J1" t="n">
-        <v>0.003213586580158834</v>
+        <v>0.006764610113420535</v>
       </c>
     </row>
   </sheetData>
